--- a/OMAVIAT/Resources/schedule/b3-changes.xlsx
+++ b/OMAVIAT/Resources/schedule/b3-changes.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="02.09" sheetId="230" r:id="rId1"/>
+    <sheet name="01.10" sheetId="255" r:id="rId1"/>
+    <sheet name="02.10" sheetId="256" r:id="rId2"/>
+    <sheet name="03.10" sheetId="257" r:id="rId3"/>
+    <sheet name="04.10" sheetId="258" r:id="rId4"/>
+    <sheet name="05.10" sheetId="259" r:id="rId5"/>
+    <sheet name="08.10" sheetId="261" r:id="rId6"/>
+    <sheet name="09.10" sheetId="262" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="182">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -62,196 +68,505 @@
     <t>пр/н</t>
   </si>
   <si>
+    <t>Хомина О.Н.</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>08:00 - 09:30</t>
+  </si>
+  <si>
+    <t>09:40 - 11:10</t>
+  </si>
+  <si>
+    <t>11:40 - 13:10</t>
+  </si>
+  <si>
+    <t>13:40 - 15:10</t>
+  </si>
+  <si>
+    <t>15:30 - 17:00</t>
+  </si>
+  <si>
+    <t>17:10 - 18:40</t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>Надточий Г.Ф.</t>
+  </si>
+  <si>
+    <t>Ханникова Э.Х.</t>
+  </si>
+  <si>
+    <t>Ложникова Е.В.</t>
+  </si>
+  <si>
+    <t>Гриневич Е.Н.</t>
+  </si>
+  <si>
+    <t>Уфимцева Н.Б.</t>
+  </si>
+  <si>
+    <t>Николаева Т.А.</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Савина Н.Ю.</t>
+  </si>
+  <si>
+    <t>Каракальцев А.Н.</t>
+  </si>
+  <si>
+    <t>Жусупова Е.Б.</t>
+  </si>
+  <si>
+    <t>1 учебная неделя</t>
+  </si>
+  <si>
+    <t>Круковский И.М.</t>
+  </si>
+  <si>
+    <t>РМ114</t>
+  </si>
+  <si>
+    <t>ПВ114</t>
+  </si>
+  <si>
+    <t>СВ312</t>
+  </si>
+  <si>
+    <t>ТТГС</t>
+  </si>
+  <si>
+    <t>БЖД</t>
+  </si>
+  <si>
+    <t>РМ124</t>
+  </si>
+  <si>
+    <t>К213</t>
+  </si>
+  <si>
+    <t>АВ312</t>
+  </si>
+  <si>
+    <t>К223</t>
+  </si>
+  <si>
+    <t>Лит-ра</t>
+  </si>
+  <si>
+    <t>АВ213</t>
+  </si>
+  <si>
+    <t>ИнЯз вП</t>
+  </si>
+  <si>
+    <t>Физ-ра</t>
+  </si>
+  <si>
+    <t>ПВ411</t>
+  </si>
+  <si>
+    <t>СредИзм</t>
+  </si>
+  <si>
+    <t>СВ213</t>
+  </si>
+  <si>
+    <t>ОП223</t>
+  </si>
+  <si>
+    <t>Ерофеев Д.А.</t>
+  </si>
+  <si>
+    <t>Матем</t>
+  </si>
+  <si>
+    <t>ОП213</t>
+  </si>
+  <si>
+    <t>ОП114</t>
+  </si>
+  <si>
+    <t>Рус.яз</t>
+  </si>
+  <si>
+    <t>ЭЛ114</t>
+  </si>
+  <si>
+    <t>ОсИнжГр</t>
+  </si>
+  <si>
+    <t>ТСРМе</t>
+  </si>
+  <si>
+    <t>Гурвич С.А.</t>
+  </si>
+  <si>
+    <t>ОПД</t>
+  </si>
+  <si>
+    <t>Морозова Л.В.</t>
+  </si>
+  <si>
+    <t>ОП124</t>
+  </si>
+  <si>
+    <t>АВ114</t>
+  </si>
+  <si>
+    <t>Зайцева О.В.</t>
+  </si>
+  <si>
+    <t>ККСвар</t>
+  </si>
+  <si>
+    <t>ЭЛ213</t>
+  </si>
+  <si>
+    <t>Мастерская</t>
+  </si>
+  <si>
+    <t>ООТС</t>
+  </si>
+  <si>
+    <t>Сорокин А.Л.</t>
+  </si>
+  <si>
+    <t>ОБП</t>
+  </si>
+  <si>
+    <t>ИДМСРТ</t>
+  </si>
+  <si>
+    <t>спортзал</t>
+  </si>
+  <si>
+    <t>Троцкий Д.Л.</t>
+  </si>
+  <si>
+    <t>Дойникова М.Е.</t>
+  </si>
+  <si>
+    <t>Супрун Е.Д.</t>
+  </si>
+  <si>
+    <t>Вакансия</t>
+  </si>
+  <si>
+    <t>Куцевалова О.А.</t>
+  </si>
+  <si>
+    <t>ОИМсвар</t>
+  </si>
+  <si>
+    <t>КЭТОА</t>
+  </si>
+  <si>
+    <t>К124</t>
+  </si>
+  <si>
+    <t>Мукатов А.Т.</t>
+  </si>
+  <si>
+    <t>Дяткова Е.А.</t>
+  </si>
+  <si>
+    <t>ППРХГСБ</t>
+  </si>
+  <si>
+    <t>ПВ213</t>
+  </si>
+  <si>
+    <t>ППРКП</t>
+  </si>
+  <si>
+    <t>ОПРХГСБ</t>
+  </si>
+  <si>
+    <t>Клейман Н.В.</t>
+  </si>
+  <si>
+    <t>Биолог</t>
+  </si>
+  <si>
+    <t>мастерская</t>
+  </si>
+  <si>
+    <t>ТехИзм</t>
+  </si>
+  <si>
+    <t>Богун Е.Г.</t>
+  </si>
+  <si>
+    <t>ТехЧерч</t>
+  </si>
+  <si>
+    <t>ОМатВед</t>
+  </si>
+  <si>
+    <t>библиот</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ИНяз 1пг</t>
+  </si>
+  <si>
+    <t>ИНяз 2пг</t>
+  </si>
+  <si>
+    <t>Елизаров Н.Р.*</t>
+  </si>
+  <si>
+    <t>ИнЯз вП 1пг</t>
+  </si>
+  <si>
+    <t>ИнЯз вП 2пг</t>
+  </si>
+  <si>
+    <t>ОП312</t>
+  </si>
+  <si>
+    <t>Макогонюк С.Ю.</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Ищанова А.А.</t>
+  </si>
+  <si>
+    <t>30 сентября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 01 октября 2024г. (вторник) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 01.10.2024г. </t>
+  </si>
+  <si>
+    <t>Столовая</t>
+  </si>
+  <si>
+    <t>ОПРХКП</t>
+  </si>
+  <si>
+    <t>01 октября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 02 октября 2024г. (среда) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 02.10.2024г. </t>
+  </si>
+  <si>
+    <t>ТТРДС</t>
+  </si>
+  <si>
+    <t>ПВ322</t>
+  </si>
+  <si>
+    <t>ТОРМ</t>
+  </si>
+  <si>
+    <t>ОТПТ</t>
+  </si>
+  <si>
     <t>Иванович М.А.</t>
   </si>
   <si>
-    <t>Хомина О.Н.</t>
-  </si>
-  <si>
-    <t>спорт</t>
-  </si>
-  <si>
-    <t>Физика</t>
+    <t>столовая</t>
+  </si>
+  <si>
+    <t>ОсМикро</t>
+  </si>
+  <si>
+    <t>ЭЛ312</t>
+  </si>
+  <si>
+    <t>КИП</t>
+  </si>
+  <si>
+    <t>ОхрТруд</t>
+  </si>
+  <si>
+    <t>Жеганина С.А.</t>
+  </si>
+  <si>
+    <t>02 октября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 03 октября 2024г. (четверг) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 03.10.2024г. </t>
+  </si>
+  <si>
+    <t>столов</t>
+  </si>
+  <si>
+    <t>ППРГБЗ</t>
+  </si>
+  <si>
+    <t>ККсвар</t>
+  </si>
+  <si>
+    <t>Пр.Физ</t>
+  </si>
+  <si>
+    <t>ПВ312</t>
+  </si>
+  <si>
+    <t>Елизаров Н.Р.</t>
+  </si>
+  <si>
+    <t>ТПВС</t>
+  </si>
+  <si>
+    <t>Ерёменко О.И.</t>
+  </si>
+  <si>
+    <t>03 октября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 05 октября 2024г. (пятница) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 05.10.2024г. </t>
+  </si>
+  <si>
+    <t>Обществ</t>
+  </si>
+  <si>
+    <t>Березуцкая М.В.</t>
+  </si>
+  <si>
+    <t>Конткач</t>
+  </si>
+  <si>
+    <t>ИСТОРИЯ</t>
+  </si>
+  <si>
+    <t>08:00 - 08:45</t>
+  </si>
+  <si>
+    <t>08:55 - 09:40</t>
+  </si>
+  <si>
+    <t>09:50 - 10:35</t>
+  </si>
+  <si>
+    <t>11:15 - 12:00</t>
+  </si>
+  <si>
+    <t>12:10 - 12:55</t>
+  </si>
+  <si>
+    <t>13:05 - 13:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 04 октября 2024г. (пятница) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 04.10.2024г. </t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>ОБЗР</t>
   </si>
   <si>
     <t>Баранова Е.В.</t>
   </si>
   <si>
-    <t>08:00 - 09:30</t>
-  </si>
-  <si>
-    <t>09:40 - 11:10</t>
-  </si>
-  <si>
-    <t>11:40 - 13:10</t>
-  </si>
-  <si>
-    <t>13:40 - 15:10</t>
-  </si>
-  <si>
-    <t>15:30 - 17:00</t>
-  </si>
-  <si>
-    <t>17:10 - 18:40</t>
-  </si>
-  <si>
-    <t>Отмена</t>
-  </si>
-  <si>
-    <t>Надточий Г.Ф.</t>
-  </si>
-  <si>
-    <t>Ханникова Э.Х.</t>
-  </si>
-  <si>
-    <t>Ложникова Е.В.</t>
-  </si>
-  <si>
-    <t>Гриневич Е.Н.</t>
-  </si>
-  <si>
-    <t>Уфимцева Н.Б.</t>
-  </si>
-  <si>
-    <t>Николаева Т.А.</t>
-  </si>
-  <si>
-    <t>Березуцкая М.В.</t>
-  </si>
-  <si>
-    <t>История</t>
-  </si>
-  <si>
-    <t>Савина Н.Ю.</t>
-  </si>
-  <si>
-    <t>ТехГраф</t>
-  </si>
-  <si>
-    <t>Каракальцев А.Н.</t>
-  </si>
-  <si>
-    <t>Жусупова Е.Б.</t>
-  </si>
-  <si>
-    <t>1 учебная неделя</t>
-  </si>
-  <si>
-    <t>Круковский И.М.</t>
+    <t>Воряхова Т.С.</t>
+  </si>
+  <si>
+    <t>ОсФинГр</t>
+  </si>
+  <si>
+    <t>СВ114</t>
   </si>
   <si>
     <t>Ткачёва Т.Н.</t>
   </si>
   <si>
+    <t>Информ</t>
+  </si>
+  <si>
+    <t>Осокин М.А.</t>
+  </si>
+  <si>
+    <t>ИнЯз 1пг</t>
+  </si>
+  <si>
+    <t>ИнЯз 2пг</t>
+  </si>
+  <si>
+    <t>Географ</t>
+  </si>
+  <si>
     <t>Лезин И.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">Изменения в расписании на 02 сентября 2024г. (понедельник) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Режим звонков 02.09.2024г. </t>
-  </si>
-  <si>
-    <t>РМ114</t>
-  </si>
-  <si>
-    <t>ПВ114</t>
-  </si>
-  <si>
-    <t>СВ312</t>
-  </si>
-  <si>
-    <t>ТТГС</t>
-  </si>
-  <si>
-    <t>БЖД</t>
-  </si>
-  <si>
-    <t>РМ124</t>
-  </si>
-  <si>
     <t>К114</t>
   </si>
   <si>
-    <t>ОБЗР</t>
-  </si>
-  <si>
-    <t>К213</t>
-  </si>
-  <si>
-    <t>АВ312</t>
-  </si>
-  <si>
-    <t>ТМРМе</t>
-  </si>
-  <si>
-    <t>К223</t>
-  </si>
-  <si>
-    <t>ПВ312</t>
-  </si>
-  <si>
-    <t>ОТПТ</t>
-  </si>
-  <si>
-    <t>Вакансия Основы товароведения</t>
-  </si>
-  <si>
-    <t>Лит-ра</t>
-  </si>
-  <si>
-    <t>ИСТОРИЯ</t>
-  </si>
-  <si>
-    <t>АВ213</t>
-  </si>
-  <si>
-    <t>ИнЯз вП</t>
-  </si>
-  <si>
-    <t>Вакансия ИнЯз 2</t>
-  </si>
-  <si>
-    <t>Физ-ра</t>
-  </si>
-  <si>
-    <t>ПВ411</t>
-  </si>
-  <si>
-    <t>СредИзм</t>
-  </si>
-  <si>
-    <t>ОсФинГр</t>
-  </si>
-  <si>
-    <t>СВ213</t>
-  </si>
-  <si>
-    <t>ОП223</t>
-  </si>
-  <si>
-    <t>ИДМС</t>
-  </si>
-  <si>
-    <t>Ерофеев Д.А.</t>
-  </si>
-  <si>
-    <t>Матем</t>
-  </si>
-  <si>
-    <t>Географ</t>
-  </si>
-  <si>
-    <t>ОП213</t>
-  </si>
-  <si>
-    <t>ОИМсв</t>
-  </si>
-  <si>
-    <t>Вакансия Оборуд.инстр.и матер.</t>
-  </si>
-  <si>
-    <t>30 августа 2024г.</t>
+    <t>ПСОПС</t>
+  </si>
+  <si>
+    <t>2 учебная неделя</t>
+  </si>
+  <si>
+    <t>07 октября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 08 октября 2024г. (вторник) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 08.10.2024г. </t>
+  </si>
+  <si>
+    <t>СВ322</t>
+  </si>
+  <si>
+    <t>ОКУ</t>
+  </si>
+  <si>
+    <t>ОТМнаМС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменения в расписании на 09 октября 2024г. (среда) </t>
+  </si>
+  <si>
+    <t>08 октября 2024г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим звонков 09.10.2024г. </t>
+  </si>
+  <si>
+    <t>ОППРГЗ</t>
+  </si>
+  <si>
+    <t>КонтКач</t>
+  </si>
+  <si>
+    <t>Черчен</t>
+  </si>
+  <si>
+    <t>ОТЭПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матем </t>
   </si>
 </sst>
 </file>
@@ -338,7 +653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -396,12 +711,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -448,9 +774,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -458,13 +781,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,28 +1094,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -858,7 +1185,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -885,42 +1212,42 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="22"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="A8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -956,17 +1283,17 @@
       <c r="K10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="26"/>
+      <c r="M10" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
+      <c r="B11" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -975,10 +1302,10 @@
         <v>403</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>14</v>
@@ -987,80 +1314,80 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>20</v>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
+      <c r="B12" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12" s="11">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11">
-        <v>205</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>21</v>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>3</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" s="11">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>14</v>
@@ -1068,71 +1395,81 @@
       <c r="H13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>303</v>
+      </c>
       <c r="J13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="M13" s="2">
         <v>3</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>22</v>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>303</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="G14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M14" s="2">
         <v>4</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>23</v>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
       <c r="D15" s="11">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>14</v>
@@ -1141,19 +1478,19 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1161,333 +1498,337 @@
         <v>1</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="11">
-        <v>403</v>
+        <v>107</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11">
+        <v>404</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="M16" s="1">
         <v>6</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C17" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="11">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="11">
-        <v>2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>405</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C18" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="11">
-        <v>3</v>
-      </c>
-      <c r="I18" s="11">
-        <v>305</v>
+        <v>2</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11">
-        <v>403</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="11">
-        <v>6</v>
-      </c>
-      <c r="I19" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="J19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>204</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="G20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="11">
-        <v>3</v>
-      </c>
-      <c r="I20" s="11">
-        <v>106</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K20" s="12"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11">
-        <v>402</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="11">
-        <v>3</v>
-      </c>
-      <c r="I21" s="11">
-        <v>405</v>
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C22" s="11">
-        <v>6</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>402</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="11">
-        <v>6</v>
-      </c>
-      <c r="I22" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>202</v>
+      </c>
       <c r="J22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C23" s="11">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>402</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="11">
-        <v>3</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I23" s="11">
+        <v>202</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C24" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11">
         <v>106</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="11">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C25" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="11">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>29</v>
@@ -1496,408 +1837,386 @@
         <v>14</v>
       </c>
       <c r="H25" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="11">
         <v>106</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="11">
-        <v>407</v>
+        <v>204</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="11">
-        <v>4</v>
-      </c>
-      <c r="I26" s="11">
-        <v>303</v>
+        <v>2</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>205</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="11">
-        <v>4</v>
-      </c>
-      <c r="D27" s="11">
-        <v>303</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="11">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>2</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="11">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="11">
-        <v>4</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>303</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>2</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I29" s="11">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>4</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="11">
-        <v>5</v>
-      </c>
-      <c r="D30" s="11">
-        <v>303</v>
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" s="11">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C31" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11">
-        <v>202</v>
+        <v>403</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C32" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="11">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="11">
-        <v>5</v>
-      </c>
-      <c r="I32" s="11">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C33" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="11">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="11">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" s="11">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11">
-        <v>402</v>
+        <v>3</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="11">
-        <v>6</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="I35" s="11">
+        <v>404</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>2</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11">
         <v>6</v>
       </c>
       <c r="D36" s="11">
-        <v>202</v>
+        <v>405</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>14</v>
@@ -1905,153 +2224,575 @@
       <c r="H36" s="11">
         <v>6</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="11"/>
+      <c r="J36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="11">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3</v>
+      </c>
+      <c r="I37" s="11">
+        <v>405</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>3</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11">
+        <v>402</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3</v>
+      </c>
+      <c r="I38" s="11">
+        <v>402</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>2</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="11">
+        <v>6</v>
+      </c>
+      <c r="D39" s="11">
+        <v>201</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11">
+        <v>6</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>2</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="11">
+        <v>3</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="11">
+        <v>3</v>
+      </c>
+      <c r="I40" s="11">
+        <v>201</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>2</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="11">
+        <v>6</v>
+      </c>
+      <c r="D41" s="11">
+        <v>303</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11">
+        <v>6</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>2</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11">
+        <v>3</v>
+      </c>
+      <c r="I42" s="11">
+        <v>403</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>2</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="11">
+        <v>4</v>
+      </c>
+      <c r="D43" s="11">
+        <v>407</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11">
+        <v>4</v>
+      </c>
+      <c r="I43" s="11">
+        <v>405</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>2</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="11">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>303</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="11">
+        <v>4</v>
+      </c>
+      <c r="I44" s="11">
+        <v>405</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>2</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="11">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11">
+        <v>302</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4</v>
+      </c>
+      <c r="I45" s="11">
         <v>401</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="J45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>2</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="11">
+        <v>4</v>
+      </c>
+      <c r="D46" s="11">
+        <v>402</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4</v>
+      </c>
+      <c r="I46" s="11">
+        <v>402</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="11">
+        <v>5</v>
+      </c>
+      <c r="D47" s="11">
+        <v>202</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="11">
+        <v>5</v>
+      </c>
+      <c r="I47" s="11">
+        <v>304</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>2</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="11">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11">
+        <v>401</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="11">
+        <v>5</v>
+      </c>
+      <c r="I48" s="11">
+        <v>302</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>2</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="11">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11">
+        <v>202</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="11">
+        <v>5</v>
+      </c>
+      <c r="I49" s="11">
+        <v>202</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>2</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="11">
+        <v>5</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="11">
+        <v>5</v>
+      </c>
+      <c r="I50" s="11">
+        <v>402</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>2</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="11">
+        <v>6</v>
+      </c>
+      <c r="D51" s="11">
+        <v>202</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="11">
+        <v>6</v>
+      </c>
+      <c r="I51" s="11">
+        <v>203</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>2</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="11">
+        <v>6</v>
+      </c>
+      <c r="D52" s="11">
+        <v>402</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="11">
+        <v>6</v>
+      </c>
+      <c r="I52" s="11">
+        <v>402</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="9" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-    </row>
-    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-    </row>
-    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-    </row>
-    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-    </row>
-    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-    </row>
-    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-    </row>
-    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-    </row>
-    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-    </row>
-    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-    </row>
-    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-    </row>
-    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
+      <c r="J54" s="14" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2062,6 +2803,5561 @@
     <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>402</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>405</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>402</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>405</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>202</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3</v>
+      </c>
+      <c r="I13" s="11">
+        <v>303</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>201</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>201</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>302</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="11">
+        <v>6</v>
+      </c>
+      <c r="D18" s="11">
+        <v>302</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>302</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>403</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>106</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>403</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>106</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>303</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>405</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>202</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>402</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>304</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11">
+        <v>202</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>301</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>204</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>204</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="11">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>404</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11">
+        <v>201</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>402</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11">
+        <v>402</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11">
+        <v>301</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11">
+        <v>202</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11">
+        <v>402</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6</v>
+      </c>
+      <c r="I24" s="11">
+        <v>402</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>203</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>401</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>203</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>402</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>202</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>202</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>402</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>402</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>407</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>404</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>404</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>402</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>304</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>304</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11">
+        <v>202</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>402</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>5</v>
+      </c>
+      <c r="I21" s="11">
+        <v>304</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>405</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11">
+        <v>401</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11">
+        <v>402</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6</v>
+      </c>
+      <c r="I23" s="11">
+        <v>106</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11">
+        <v>301</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6</v>
+      </c>
+      <c r="I24" s="11">
+        <v>301</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>403</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>403</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>405</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>403</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>202</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>405</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>1</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11">
+        <v>4</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>1</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="11">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11">
+        <v>4</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>3</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="11">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="11">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="11">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="11">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="11">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="11">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="11">
+        <v>4</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>3</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="11">
+        <v>4</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="11">
+        <v>4</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="11">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="11">
+        <v>4</v>
+      </c>
+      <c r="D37" s="11">
+        <v>301</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="11">
+        <v>4</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>2</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>2</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="11">
+        <v>4</v>
+      </c>
+      <c r="D39" s="11">
+        <v>405</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11">
+        <v>4</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>2</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="11">
+        <v>5</v>
+      </c>
+      <c r="D40" s="11">
+        <v>402</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="11">
+        <v>5</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>2</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="11">
+        <v>6</v>
+      </c>
+      <c r="D41" s="11">
+        <v>301</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11">
+        <v>6</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>2</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="11">
+        <v>6</v>
+      </c>
+      <c r="D42" s="11">
+        <v>402</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11">
+        <v>6</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>403</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>404</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>402</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>402</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>402</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>405</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>401</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>405</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>402</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>402</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11">
+        <v>402</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>403</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11">
+        <v>401</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>403</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>401</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>202</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3</v>
+      </c>
+      <c r="I20" s="11">
+        <v>201</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="11">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>302</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11">
+        <v>304</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11">
+        <v>405</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11">
+        <v>4</v>
+      </c>
+      <c r="I22" s="11">
+        <v>407</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>405</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4</v>
+      </c>
+      <c r="I23" s="11">
+        <v>303</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>204</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4</v>
+      </c>
+      <c r="I24" s="11">
+        <v>201</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>2</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11">
+        <v>202</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11">
+        <v>5</v>
+      </c>
+      <c r="I25" s="11">
+        <v>304</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="11">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11">
+        <v>304</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11">
+        <v>5</v>
+      </c>
+      <c r="I26" s="11">
+        <v>405</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="11">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11">
+        <v>405</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11">
+        <v>5</v>
+      </c>
+      <c r="I27" s="11">
+        <v>407</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="11">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11">
+        <v>405</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11">
+        <v>5</v>
+      </c>
+      <c r="I28" s="11">
+        <v>303</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="11">
+        <v>6</v>
+      </c>
+      <c r="D29" s="11">
+        <v>303</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11">
+        <v>6</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="11">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11">
+        <v>301</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11">
+        <v>6</v>
+      </c>
+      <c r="I30" s="11">
+        <v>202</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="11">
+        <v>6</v>
+      </c>
+      <c r="D31" s="11">
+        <v>405</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11">
+        <v>6</v>
+      </c>
+      <c r="I31" s="11">
+        <v>302</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="N10" s="27"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>203</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>304</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>201</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>201</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>202</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>202</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>203</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11">
+        <v>403</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>203</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11">
+        <v>109</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>302</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>302</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>201</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>201</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11">
+        <v>201</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>201</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
+      <c r="I23" s="11">
+        <v>201</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11">
+        <v>204</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>201</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2</v>
+      </c>
+      <c r="I25" s="11">
+        <v>201</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3</v>
+      </c>
+      <c r="I26" s="11">
+        <v>305</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="11">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="11">
+        <v>6</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="12"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="11">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11">
+        <v>402</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="11">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11">
+        <v>303</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4</v>
+      </c>
+      <c r="I29" s="11">
+        <v>201</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="11">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11">
+        <v>401</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4</v>
+      </c>
+      <c r="I30" s="11">
+        <v>405</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="11">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11">
+        <v>405</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4</v>
+      </c>
+      <c r="I31" s="11">
+        <v>402</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>2</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="11">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11">
+        <v>405</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11">
+        <v>5</v>
+      </c>
+      <c r="I32" s="11">
+        <v>402</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>